--- a/BackTest/2020-01-19 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-19 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-57207.59319999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-57207.59319999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-54897.58759999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-52178.21079999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-57987.40899999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-61963.4492</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-60669.4963</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-62929.2657</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-66675.5851</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-61235.2299</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-57621.0281</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-57621.0281</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-59676.58579999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-58038.4063</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-60624.7977</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-56492.9071</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-54238.13759999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-54238.13759999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-58347.7597</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-58347.7597</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-58347.7597</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-60628.39309999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-64076.71989999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-64640.42649999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-60762.50659999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-62538.16629999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-57821.70769999998</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-75247.93499999998</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-71726.15599999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-71726.15599999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-68063.12399999998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-61730.28529999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-64295.51779999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-68764.76539999997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-63786.10449999997</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-63786.10449999997</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-69159.45269999997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-66883.28909999997</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-68102.55589999996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-68102.55589999996</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-69883.89429999996</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-69883.89429999996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-69883.89429999996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-67054.46149999996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-68828.06029999997</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-66772.36539999997</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-71916.51929999997</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-66494.83489999997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-68252.27639999997</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-66908.73909999998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-64951.11719999998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-65504.93149999998</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-65504.93149999998</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-67654.79809999997</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-67654.79809999997</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-66676.20659999998</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-66676.20659999998</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-66676.20659999998</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-66676.20659999998</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-66676.20659999998</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-66676.20659999998</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-66498.16179999997</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-65549.60759999997</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-65549.60759999997</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-65549.60759999997</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-65549.60759999997</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-65549.60759999997</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-79619.02479999997</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-80584.65469999997</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-80495.62969999998</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-80495.62969999998</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-85133.97769999997</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-85133.97769999997</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-85133.97769999997</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-85133.97769999997</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-85133.97769999997</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-85133.97769999997</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-85133.97769999997</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-81638.92369999997</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-83646.85559999997</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-83646.85559999997</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-83646.85559999997</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-83646.85559999997</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-83646.85559999997</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-83646.85559999997</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-69181.12819999996</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-69181.12819999996</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-69181.12819999996</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-68566.16769999996</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-67037.76559999996</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-65974.65909999996</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-65974.65909999996</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-66734.91219999996</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-69748.19479999997</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-75966.61659999996</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-75966.61659999996</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-75966.61659999996</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-75966.61659999996</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-75966.61659999996</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-75966.61659999996</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-75966.61659999996</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-75966.61659999996</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-84844.12729999996</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-84844.12729999996</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-75681.40329999996</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-81595.42889999996</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-85928.61959999996</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-86949.24269999996</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-86949.24269999996</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-84405.77849999996</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-84405.77849999996</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-84405.77849999996</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-84405.77849999996</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-84405.77849999996</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-84405.77849999996</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-88275.78899999996</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-88275.78899999996</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-88603.52039999996</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-88603.52039999996</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-74867.17259999998</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-74867.17259999998</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-74867.17259999998</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-74867.17259999998</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-74867.17259999998</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-74867.17259999998</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-78514.61159999997</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-99364.55009999998</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-85030.80049999997</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-77110.73119999997</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-76563.29719999997</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-76563.29719999997</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-76563.29719999997</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-76563.29719999997</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-76474.29419999997</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-68465.13699999997</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-68465.13699999997</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-68465.13699999997</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-68465.13699999997</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-68465.13699999997</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-69590.82669999998</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-68287.27669999997</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-70243.08259999998</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-70243.08259999998</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-70243.08259999998</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-70064.99849999999</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-70064.99849999999</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-70064.99849999999</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-70064.99849999999</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-70064.99849999999</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-70064.99849999999</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-63730.18279999999</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-59011.87659999999</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-53239.19329999999</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-58585.34919999999</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-61567.76029999999</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-57892.21539999999</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-56317.31739999999</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-58927.46399999999</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-58927.46399999999</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-57811.21879999999</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-57811.21879999999</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-53982.48179999999</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-58051.85219999999</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-61484.34779999999</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-60034.32229999999</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-63147.18189999998</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-62489.77399999998</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-59006.43739999998</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-60177.53179999998</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-60177.53179999998</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-55799.59779999998</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-55799.59779999998</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-47231.17469999998</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-48539.97799999998</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-46384.07079999998</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-45196.35679999998</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-47240.77759999998</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-47930.67919999998</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-46301.08899999998</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-49402.01109999997</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-47682.19655621998</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-48370.02235621998</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-55060.33765621998</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-56846.10875621998</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-53987.35975621997</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-51631.05435621997</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-49364.21485621997</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-53217.41705621997</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-40536.96385621997</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-35812.23955621997</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-28825.28775621996</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-33191.17635621996</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-36359.41795621996</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-49188.87765621996</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-50630.84605621995</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-55897.95435621995</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-62428.24955621995</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-65903.43195621995</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-66633.72735621994</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-68141.79395621995</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-65783.48085621995</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-70354.40285621995</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-66112.44355621995</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-69433.67535621994</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-69433.67535621994</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-65609.16335621994</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-67846.64755621995</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-67846.64755621995</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-67846.64755621995</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-67992.46125621995</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-74505.09335621995</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-74505.09335621995</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-74505.09335621995</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-104257.14155622</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-110703.50945622</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-106994.82345622</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-110850.1171562199</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-110850.1171562199</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-100784.2814562199</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-106400.84765622</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-106400.84765622</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-106400.84765622</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-106400.84765622</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-147917.22635622</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-147739.10725622</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-147739.10725622</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-139745.6698303399</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-139745.6698303399</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-139238.0870303399</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-139109.1670303399</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-139109.1670303399</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-135538.6715303399</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-138445.2195303399</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-150635.2490703399</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-149366.4914703399</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-152822.8697703399</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-149391.4598703399</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-146929.1713703399</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-147830.8714703399</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-157488.7612703399</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-157488.7612703399</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-157488.7612703399</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-156631.1785703399</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-158834.7795703399</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -35167,14 +35167,10 @@
         <v>-176456.63860928</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="J1054" t="n">
-        <v>229.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
@@ -35204,60 +35200,54 @@
         <v>-175246.84250928</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1055" t="n">
         <v>229.6</v>
       </c>
       <c r="J1055" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1055" t="inlineStr"/>
+      <c r="L1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="n">
         <v>229.8</v>
       </c>
-      <c r="K1055" t="inlineStr">
+      <c r="C1056" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>4033.4274</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>-175246.84250928</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1056" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1055" t="inlineStr"/>
-    </row>
-    <row r="1056">
-      <c r="A1056" s="1" t="n">
-        <v>1054</v>
-      </c>
-      <c r="B1056" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="C1056" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="D1056" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="E1056" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="F1056" t="n">
-        <v>4033.4274</v>
-      </c>
-      <c r="G1056" t="n">
-        <v>-175246.84250928</v>
-      </c>
-      <c r="H1056" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="J1056" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35286,13 +35276,11 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>229.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1057" t="inlineStr">
         <is>
@@ -35331,7 +35319,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1058" t="inlineStr">
         <is>
@@ -35370,7 +35358,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
@@ -35409,7 +35397,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1060" t="inlineStr">
         <is>
@@ -35448,7 +35436,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1061" t="inlineStr">
         <is>
@@ -35483,11 +35471,13 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>229.5</v>
+      </c>
       <c r="J1062" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1062" t="inlineStr">
         <is>
@@ -35522,13 +35512,13 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1063" t="n">
         <v>229.5</v>
       </c>
       <c r="J1063" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
@@ -35563,13 +35553,13 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1064" t="n">
         <v>229.5</v>
       </c>
       <c r="J1064" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1064" t="inlineStr">
         <is>
@@ -35604,13 +35594,13 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1065" t="n">
         <v>229.5</v>
       </c>
       <c r="J1065" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1065" t="inlineStr">
         <is>
@@ -35645,13 +35635,13 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1066" t="n">
         <v>229.5</v>
       </c>
       <c r="J1066" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
@@ -35686,13 +35676,11 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
@@ -35727,13 +35715,13 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1068" t="n">
         <v>229.7</v>
       </c>
       <c r="J1068" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
@@ -35768,13 +35756,11 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>229.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1069" t="inlineStr">
         <is>
@@ -35809,13 +35795,11 @@
         <v>-178378.15430928</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>229.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1070" t="inlineStr">
         <is>
@@ -35850,13 +35834,11 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>229.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
@@ -35891,13 +35873,11 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>229.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
@@ -35932,13 +35912,11 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>229.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
@@ -35977,7 +35955,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
@@ -36016,7 +35994,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1075" t="inlineStr">
         <is>
@@ -36055,7 +36033,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36094,7 +36072,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36133,7 +36111,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36172,7 +36150,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1079" t="inlineStr">
         <is>
@@ -36211,7 +36189,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1080" t="inlineStr">
         <is>
@@ -36250,7 +36228,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1081" t="inlineStr">
         <is>
@@ -36289,7 +36267,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1082" t="inlineStr">
         <is>
@@ -36324,19 +36302,19 @@
         <v>-168239.04730928</v>
       </c>
       <c r="H1083" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="n">
-        <v>229.8</v>
+        <v>229.6</v>
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1083" t="n">
-        <v>1.009360313315927</v>
+        <v>1</v>
       </c>
       <c r="M1083" t="inlineStr"/>
     </row>
@@ -36363,11 +36341,17 @@
         <v>-171114.06490928</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36399,8 +36383,14 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="J1085" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36432,8 +36422,14 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36465,8 +36461,14 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36498,8 +36500,14 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36531,8 +36539,14 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36561,15 +36575,15 @@
         <v>-181524.37490928</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="J1090" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1090" t="n">
@@ -36600,12 +36614,12 @@
         <v>-178978.44320928</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>231.7</v>
-      </c>
-      <c r="J1091" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36639,12 +36653,12 @@
         <v>-181105.62960928</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="J1092" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36681,7 +36695,9 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36718,7 +36734,9 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36755,7 +36773,9 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36792,7 +36812,9 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36829,7 +36851,9 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36866,7 +36890,9 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36903,7 +36929,9 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36940,7 +36968,9 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36977,7 +37007,9 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37014,7 +37046,9 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37048,10 +37082,14 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>232</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37088,7 +37126,9 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37125,7 +37165,9 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37162,7 +37204,9 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37199,7 +37243,9 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37236,7 +37282,9 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37273,7 +37321,9 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37310,7 +37360,9 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37347,7 +37399,9 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37384,7 +37438,9 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37421,7 +37477,9 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37458,7 +37516,9 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37495,7 +37555,9 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37532,7 +37594,9 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37569,7 +37633,9 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37606,7 +37672,9 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37643,7 +37711,9 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37680,7 +37750,9 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37717,7 +37789,9 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37754,7 +37828,9 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37791,7 +37867,9 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37828,7 +37906,9 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37865,7 +37945,9 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37902,7 +37984,9 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37939,7 +38023,9 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37976,7 +38062,9 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38013,7 +38101,9 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38050,7 +38140,9 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38087,7 +38179,9 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38124,7 +38218,9 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38161,7 +38257,9 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38198,7 +38296,9 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38235,7 +38335,9 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38272,7 +38374,9 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38309,7 +38413,9 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38346,7 +38452,9 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38383,7 +38491,9 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38420,7 +38530,9 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38457,7 +38569,9 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38494,7 +38608,9 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38531,7 +38647,9 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38568,7 +38686,9 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38605,7 +38725,9 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38642,7 +38764,9 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38679,7 +38803,9 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38716,7 +38842,9 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38753,7 +38881,9 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38790,7 +38920,9 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38827,7 +38959,9 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38864,7 +38998,9 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38901,7 +39037,9 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38938,7 +39076,9 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38975,7 +39115,9 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39012,7 +39154,9 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39049,7 +39193,9 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39086,7 +39232,9 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39123,7 +39271,9 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39160,7 +39310,9 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39197,7 +39349,9 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
+      <c r="J1161" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39234,7 +39388,9 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39271,7 +39427,9 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39308,7 +39466,9 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39345,7 +39505,9 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
+      <c r="J1165" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39382,7 +39544,9 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39419,7 +39583,9 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39456,7 +39622,9 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39493,7 +39661,9 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39530,7 +39700,9 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39567,7 +39739,9 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39604,7 +39778,9 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39641,7 +39817,9 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39678,7 +39856,9 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39715,7 +39895,9 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39752,7 +39934,9 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39789,7 +39973,9 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39826,7 +40012,9 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
+      <c r="J1178" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39863,7 +40051,9 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
+      <c r="J1179" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39900,7 +40090,9 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
+      <c r="J1180" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39937,7 +40129,9 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
+      <c r="J1181" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39974,7 +40168,9 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
+      <c r="J1182" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40011,7 +40207,9 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
+      <c r="J1183" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40048,7 +40246,9 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
+      <c r="J1184" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40085,7 +40285,9 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40122,7 +40324,9 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
+      <c r="J1186" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40159,7 +40363,9 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
+      <c r="J1187" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40196,7 +40402,9 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
+      <c r="J1188" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40233,7 +40441,9 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
+      <c r="J1189" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40270,7 +40480,9 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+      <c r="J1190" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40307,7 +40519,9 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+      <c r="J1191" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40344,7 +40558,9 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
+      <c r="J1192" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40381,7 +40597,9 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
+      <c r="J1193" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40418,7 +40636,9 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
+      <c r="J1194" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40455,7 +40675,9 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
+      <c r="J1195" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40492,7 +40714,9 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
+      <c r="J1196" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40529,7 +40753,9 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
+      <c r="J1197" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40566,7 +40792,9 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
+      <c r="J1198" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40603,7 +40831,9 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
+      <c r="J1199" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40640,7 +40870,9 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
+      <c r="J1200" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40677,7 +40909,9 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
+      <c r="J1201" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40714,7 +40948,9 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40751,7 +40987,9 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40788,7 +41026,9 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40825,7 +41065,9 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
+      <c r="J1205" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40862,7 +41104,9 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40899,7 +41143,9 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
+      <c r="J1207" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40936,7 +41182,9 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40973,7 +41221,9 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
+      <c r="J1209" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41010,7 +41260,9 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
+      <c r="J1210" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41047,7 +41299,9 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41084,7 +41338,9 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41121,7 +41377,9 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41158,7 +41416,9 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41195,7 +41455,9 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41232,7 +41494,9 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41269,7 +41533,9 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41306,7 +41572,9 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41343,7 +41611,9 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
+      <c r="J1219" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41377,12 +41647,12 @@
         <v>-162034.6230092801</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1220" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="J1220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41419,7 +41689,9 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+      <c r="J1221" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41456,7 +41728,9 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41493,7 +41767,9 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41530,7 +41806,9 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41567,7 +41845,9 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41604,7 +41884,9 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41638,12 +41920,12 @@
         <v>-158508.1860092801</v>
       </c>
       <c r="H1227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1227" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="J1227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41677,12 +41959,12 @@
         <v>-157323.9929092801</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1228" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="J1228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41716,12 +41998,12 @@
         <v>-157323.9929092801</v>
       </c>
       <c r="H1229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1229" t="n">
-        <v>230.9</v>
-      </c>
-      <c r="J1229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41755,12 +42037,12 @@
         <v>-161616.37260928</v>
       </c>
       <c r="H1230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>230.9</v>
-      </c>
-      <c r="J1230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41794,12 +42076,12 @@
         <v>-160775.1792092801</v>
       </c>
       <c r="H1231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="J1231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41833,12 +42115,12 @@
         <v>-160775.1792092801</v>
       </c>
       <c r="H1232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="J1232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41872,12 +42154,12 @@
         <v>-160775.1792092801</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="J1233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41914,7 +42196,9 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41948,12 +42232,12 @@
         <v>-160955.4092092801</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="J1235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41987,12 +42271,12 @@
         <v>-177956.8724092801</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="J1236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42026,12 +42310,12 @@
         <v>-181215.1054092801</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="J1237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42065,12 +42349,12 @@
         <v>-197960.2054092801</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="J1238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42104,12 +42388,12 @@
         <v>-193053.3863092801</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>227.3</v>
-      </c>
-      <c r="J1239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42143,12 +42427,14 @@
         <v>-197496.7263092801</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1240" t="n">
         <v>228.7</v>
       </c>
-      <c r="J1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42182,12 +42468,14 @@
         <v>-191818.5825092801</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1241" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42221,12 +42509,14 @@
         <v>-188075.9041092801</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1242" t="n">
         <v>228.7</v>
       </c>
-      <c r="J1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42260,12 +42550,14 @@
         <v>-187986.8552092801</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1243" t="n">
         <v>229.5</v>
       </c>
-      <c r="J1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42299,12 +42591,14 @@
         <v>-190179.2820092801</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1244" t="n">
         <v>229.9</v>
       </c>
-      <c r="J1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42338,12 +42632,14 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1245" t="n">
         <v>229.6</v>
       </c>
-      <c r="J1245" t="inlineStr"/>
+      <c r="J1245" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42377,12 +42673,14 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1246" t="n">
         <v>229.8</v>
       </c>
-      <c r="J1246" t="inlineStr"/>
+      <c r="J1246" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42416,12 +42714,14 @@
         <v>-190001.1905092801</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1247" t="n">
         <v>229.8</v>
       </c>
-      <c r="J1247" t="inlineStr"/>
+      <c r="J1247" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42455,12 +42755,14 @@
         <v>-190769.5559092801</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1248" t="n">
         <v>229.9</v>
       </c>
-      <c r="J1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42494,12 +42796,14 @@
         <v>-189841.0161092801</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1249" t="n">
         <v>229.7</v>
       </c>
-      <c r="J1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42533,12 +42837,14 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1250" t="n">
         <v>229.8</v>
       </c>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42572,12 +42878,14 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1251" t="n">
         <v>230</v>
       </c>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42611,12 +42919,14 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1252" t="n">
         <v>230</v>
       </c>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42650,12 +42960,14 @@
         <v>-182978.3806092801</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1253" t="n">
         <v>230</v>
       </c>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42689,12 +43001,14 @@
         <v>-182978.3806092801</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1254" t="n">
         <v>230.2</v>
       </c>
-      <c r="J1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42728,12 +43042,14 @@
         <v>-181078.2440092801</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1255" t="n">
         <v>230.2</v>
       </c>
-      <c r="J1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42767,12 +43083,14 @@
         <v>-184005.5781092801</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1256" t="n">
         <v>230.3</v>
       </c>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42806,12 +43124,14 @@
         <v>-184005.5781092801</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1257" t="n">
         <v>230.2</v>
       </c>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42845,12 +43165,14 @@
         <v>-183724.2418092801</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1258" t="n">
         <v>230.2</v>
       </c>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42884,12 +43206,14 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1259" t="n">
         <v>230.3</v>
       </c>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42923,12 +43247,14 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1260" t="n">
         <v>230.2</v>
       </c>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42962,12 +43288,14 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1261" t="n">
         <v>230.2</v>
       </c>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43001,12 +43329,14 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1262" t="n">
         <v>230.2</v>
       </c>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43040,12 +43370,14 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1263" t="n">
         <v>230.3</v>
       </c>
-      <c r="J1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43079,12 +43411,14 @@
         <v>-181373.6403092801</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1264" t="n">
         <v>230.3</v>
       </c>
-      <c r="J1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43118,12 +43452,14 @@
         <v>-181373.6403092801</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1265" t="n">
         <v>230.4</v>
       </c>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43157,12 +43493,14 @@
         <v>-181941.9327092801</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1266" t="n">
         <v>230.4</v>
       </c>
-      <c r="J1266" t="inlineStr"/>
+      <c r="J1266" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43196,12 +43534,14 @@
         <v>-181941.9327092801</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1267" t="n">
         <v>230.3</v>
       </c>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43235,12 +43575,12 @@
         <v>-183182.0034092801</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1268" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="J1268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43274,12 +43614,12 @@
         <v>-183182.0034092801</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1269" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43316,7 +43656,9 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43350,12 +43692,12 @@
         <v>-188936.4361092801</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1271" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43392,7 +43734,9 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43426,10 +43770,14 @@
         <v>-190812.2720092801</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43463,10 +43811,14 @@
         <v>-191564.0951092801</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43500,12 +43852,14 @@
         <v>-190033.6305092801</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1275" t="n">
         <v>229.2</v>
       </c>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43517,6 +43871,6 @@
       <c r="M1275" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-19 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-57207.59319999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-57207.59319999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-61963.4492</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-60669.4963</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-62929.2657</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-66675.5851</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-61235.2299</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-57621.0281</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-57621.0281</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-59676.58579999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-58038.4063</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-60624.7977</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-56492.9071</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-54238.13759999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-54238.13759999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-58347.7597</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-58347.7597</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-58347.7597</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-60628.39309999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-64076.71989999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-64640.42649999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-60762.50659999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-62538.16629999998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-57821.70769999998</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-75247.93499999998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-71726.15599999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-71726.15599999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-68063.12399999998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-61730.28529999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-64295.51779999998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-68764.76539999997</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-63786.10449999997</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-63786.10449999997</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-69159.45269999997</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-66883.28909999997</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-68102.55589999996</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-68102.55589999996</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-69883.89429999996</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-69883.89429999996</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-69883.89429999996</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-67054.46149999996</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-68828.06029999997</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-66772.36539999997</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-71916.51929999997</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-66494.83489999997</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-68252.27639999997</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-66908.73909999998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-64951.11719999998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-65549.60759999997</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-79708.03669999997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-84933.18749999997</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-59011.87659999999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-53239.19329999999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-58585.34919999999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-61567.76029999999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-57892.21539999999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-56317.31739999999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-58927.46399999999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-58927.46399999999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-57811.21879999999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-57811.21879999999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-53982.48179999999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-58051.85219999999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-61484.34779999999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-60034.32229999999</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-63147.18189999998</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-62489.77399999998</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-59006.43739999998</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-60177.53179999998</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-60177.53179999998</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-55799.59779999998</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-55799.59779999998</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-47231.17469999998</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-48539.97799999998</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-46384.07079999998</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-45196.35679999998</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-47240.77759999998</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-47930.67919999998</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-46301.08899999998</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-49402.01109999997</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-47682.19655621998</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-48370.02235621998</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-55060.33765621998</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-56846.10875621998</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-53987.35975621997</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-51631.05435621997</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-49364.21485621997</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-53217.41705621997</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-40536.96385621997</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-35812.23955621997</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-28825.28775621996</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-33191.17635621996</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-36359.41795621996</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-49188.87765621996</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-50630.84605621995</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-55897.95435621995</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-62428.24955621995</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-65903.43195621995</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-66633.72735621994</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-68141.79395621995</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-65783.48085621995</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-70354.40285621995</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-66112.44355621995</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-69433.67535621994</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-69433.67535621994</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-65609.16335621994</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-67846.64755621995</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-67846.64755621995</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-67846.64755621995</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-67992.46125621995</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-74505.09335621995</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-74505.09335621995</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-74505.09335621995</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-104257.14155622</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-110703.50945622</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-106994.82345622</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-110850.1171562199</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-110850.1171562199</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-100784.2814562199</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-106400.84765622</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-106400.84765622</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-106400.84765622</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-106400.84765622</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-147917.22635622</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-147739.10725622</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-150353.83027034</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-150353.83027034</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-148042.24617034</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-149391.4598703399</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-146305.9220703399</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33484,11 +33484,17 @@
         <v>-186776.18017034</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>229.2</v>
+      </c>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33517,11 +33523,17 @@
         <v>-191625.79247034</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>230.3</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33550,11 +33562,17 @@
         <v>-183720.32637034</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>229.2</v>
+      </c>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33583,11 +33601,17 @@
         <v>-180921.02420928</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>230.3</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +33644,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33653,7 +33681,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33686,7 +33718,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33719,7 +33755,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33748,11 +33788,17 @@
         <v>-176767.62420928</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>230.6</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33785,7 +33831,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33818,7 +33868,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33851,7 +33905,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33884,7 +33942,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33917,7 +33979,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33950,7 +34016,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33983,7 +34053,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34016,7 +34090,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34049,7 +34127,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34082,7 +34164,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34115,7 +34201,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34148,7 +34238,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34181,7 +34275,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34214,7 +34312,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34247,7 +34349,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34280,7 +34386,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34313,7 +34423,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34346,7 +34460,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34379,7 +34497,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34412,7 +34534,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34445,7 +34571,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34478,7 +34608,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34511,7 +34645,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34544,7 +34682,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34577,7 +34719,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34610,7 +34756,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34643,7 +34793,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34676,7 +34830,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34709,7 +34867,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34742,7 +34904,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34775,7 +34941,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34808,7 +34978,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34841,7 +35015,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34874,7 +35052,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34907,7 +35089,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34940,7 +35126,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34973,7 +35163,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35006,7 +35200,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35039,7 +35237,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35072,7 +35274,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35105,7 +35311,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35138,7 +35348,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35171,7 +35385,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35200,15 +35418,15 @@
         <v>-175246.84250928</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="J1055" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1055" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
+      <c r="J1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35240,12 +35458,10 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1056" t="n">
@@ -35279,9 +35495,7 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35318,9 +35532,7 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35357,9 +35569,7 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35396,9 +35606,7 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35435,9 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35471,14 +35677,10 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1062" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="J1062" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1062" t="inlineStr"/>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35512,14 +35714,10 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1063" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1063" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="J1063" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1063" t="inlineStr"/>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35553,14 +35751,10 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1064" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="J1064" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1064" t="inlineStr"/>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35594,14 +35788,10 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="J1065" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35635,14 +35825,10 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1066" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="J1066" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35679,9 +35865,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35715,14 +35899,10 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="J1068" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35759,9 +35939,7 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35798,9 +35976,7 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35837,9 +36013,7 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35876,9 +36050,7 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35915,9 +36087,7 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35954,9 +36124,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35993,9 +36161,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36032,9 +36198,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36071,9 +36235,7 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36110,9 +36272,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36149,9 +36309,7 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36188,9 +36346,7 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36224,20 +36380,16 @@
         <v>-162045.71660928</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1081" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1081" t="inlineStr"/>
       <c r="M1081" t="inlineStr"/>
     </row>
     <row r="1082">
@@ -36263,17 +36415,11 @@
         <v>-166293.81530928</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36302,17 +36448,11 @@
         <v>-168239.04730928</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36341,17 +36481,11 @@
         <v>-171114.06490928</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36380,17 +36514,11 @@
         <v>-172343.76980928</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36419,17 +36547,11 @@
         <v>-172870.58940928</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36458,17 +36580,11 @@
         <v>-171993.24750928</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36497,17 +36613,11 @@
         <v>-177536.55820928</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36536,17 +36646,11 @@
         <v>-179836.97310928</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36575,17 +36679,11 @@
         <v>-181524.37490928</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36617,14 +36715,8 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36656,14 +36748,8 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36695,14 +36781,8 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36734,14 +36814,8 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36773,14 +36847,8 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36812,14 +36880,8 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36851,14 +36913,8 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36890,14 +36946,8 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36929,14 +36979,8 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36968,14 +37012,8 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37004,17 +37042,11 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37043,17 +37075,11 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37082,19 +37108,11 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1103" t="n">
-        <v>232</v>
-      </c>
-      <c r="J1103" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
+      <c r="J1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37123,17 +37141,11 @@
         <v>-172488.66130928</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37162,17 +37174,11 @@
         <v>-172488.66130928</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37201,17 +37207,11 @@
         <v>-168803.62660928</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37240,17 +37240,11 @@
         <v>-168803.62660928</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37279,17 +37273,11 @@
         <v>-172188.68550928</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37318,17 +37306,11 @@
         <v>-170120.43920928</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37357,17 +37339,11 @@
         <v>-172908.54770928</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37396,17 +37372,11 @@
         <v>-172908.54770928</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37435,17 +37405,11 @@
         <v>-175148.95610928</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37474,17 +37438,11 @@
         <v>-172306.39760928</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37513,17 +37471,11 @@
         <v>-169927.79260928</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37552,17 +37504,11 @@
         <v>-169229.41660928</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37591,17 +37537,11 @@
         <v>-175971.21890928</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37630,17 +37570,11 @@
         <v>-175971.21890928</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37672,14 +37606,8 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37708,17 +37636,11 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37747,17 +37669,11 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37786,17 +37702,11 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37825,17 +37735,11 @@
         <v>-178726.73510928</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37867,14 +37771,8 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37906,14 +37804,8 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37945,14 +37837,8 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37984,14 +37870,8 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38023,14 +37903,8 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38062,14 +37936,8 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -38101,14 +37969,8 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -38140,14 +38002,8 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -38179,14 +38035,8 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38218,14 +38068,8 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -38257,14 +38101,8 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -38296,14 +38134,8 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -38335,14 +38167,8 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -38374,14 +38200,8 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -38413,14 +38233,8 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -38452,14 +38266,8 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -38491,14 +38299,8 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38530,14 +38332,8 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38569,14 +38365,8 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38608,14 +38398,8 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38647,14 +38431,8 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38686,14 +38464,8 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38725,14 +38497,8 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38764,14 +38530,8 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38803,14 +38563,8 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38842,14 +38596,8 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38881,14 +38629,8 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38920,14 +38662,8 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38959,14 +38695,8 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38998,14 +38728,8 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39037,14 +38761,8 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39076,14 +38794,8 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39115,14 +38827,8 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39154,14 +38860,8 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39193,14 +38893,8 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39232,14 +38926,8 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39271,14 +38959,8 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39310,14 +38992,8 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39349,14 +39025,8 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39388,14 +39058,8 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39427,14 +39091,8 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39466,14 +39124,8 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39505,14 +39157,8 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39544,14 +39190,8 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39583,14 +39223,8 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39622,14 +39256,8 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39661,14 +39289,8 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39700,14 +39322,8 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39739,14 +39355,8 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39778,14 +39388,8 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39817,14 +39421,8 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39856,14 +39454,8 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39895,14 +39487,8 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39934,14 +39520,8 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39973,14 +39553,8 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -40012,14 +39586,8 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -40051,14 +39619,8 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -40090,14 +39652,8 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -40129,14 +39685,8 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -40168,14 +39718,8 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -40207,14 +39751,8 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -40246,14 +39784,8 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -40285,14 +39817,8 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -40324,14 +39850,8 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -40363,14 +39883,8 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -40402,14 +39916,8 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -40441,14 +39949,8 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -40480,14 +39982,8 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40519,14 +40015,8 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -40558,14 +40048,8 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40597,14 +40081,8 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40636,14 +40114,8 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40675,14 +40147,8 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40714,14 +40180,8 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40753,14 +40213,8 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40792,14 +40246,8 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40831,14 +40279,8 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40870,14 +40312,8 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40909,14 +40345,8 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40948,14 +40378,8 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40987,14 +40411,8 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41026,14 +40444,8 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -41065,14 +40477,8 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41104,14 +40510,8 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -41143,14 +40543,8 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -41182,14 +40576,8 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41221,14 +40609,8 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41260,14 +40642,8 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41299,14 +40675,8 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41338,14 +40708,8 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41377,14 +40741,8 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41416,14 +40774,8 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41455,14 +40807,8 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41494,14 +40840,8 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41533,14 +40873,8 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41572,14 +40906,8 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41611,14 +40939,8 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41650,14 +40972,8 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41689,14 +41005,8 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41728,14 +41038,8 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41767,14 +41071,8 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41806,14 +41104,8 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41845,14 +41137,8 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41884,14 +41170,8 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41923,14 +41203,8 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41962,14 +41236,8 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42001,14 +41269,8 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42040,14 +41302,8 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42079,14 +41335,8 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42118,14 +41368,8 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42157,14 +41401,8 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42196,14 +41434,8 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42235,14 +41467,8 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42274,14 +41500,8 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42313,14 +41533,8 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42352,14 +41566,8 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42391,14 +41599,8 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42427,19 +41629,11 @@
         <v>-197496.7263092801</v>
       </c>
       <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>228.7</v>
-      </c>
-      <c r="J1240" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
+      <c r="J1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42473,12 +41667,10 @@
       <c r="I1241" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1241" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1241" t="n">
@@ -42509,14 +41701,10 @@
         <v>-188075.9041092801</v>
       </c>
       <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>228.7</v>
-      </c>
-      <c r="J1242" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42550,14 +41738,10 @@
         <v>-187986.8552092801</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="J1243" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42591,14 +41775,10 @@
         <v>-190179.2820092801</v>
       </c>
       <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="J1244" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42632,14 +41812,10 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="J1245" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42673,14 +41849,10 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="J1246" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42714,14 +41886,10 @@
         <v>-190001.1905092801</v>
       </c>
       <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="J1247" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42755,14 +41923,10 @@
         <v>-190769.5559092801</v>
       </c>
       <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="J1248" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42796,14 +41960,10 @@
         <v>-189841.0161092801</v>
       </c>
       <c r="H1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="J1249" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42837,14 +41997,10 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="J1250" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42878,14 +42034,10 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>230</v>
-      </c>
-      <c r="J1251" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42919,14 +42071,10 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>230</v>
-      </c>
-      <c r="J1252" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42960,14 +42108,10 @@
         <v>-182978.3806092801</v>
       </c>
       <c r="H1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>230</v>
-      </c>
-      <c r="J1253" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43001,14 +42145,10 @@
         <v>-182978.3806092801</v>
       </c>
       <c r="H1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1254" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43042,14 +42182,10 @@
         <v>-181078.2440092801</v>
       </c>
       <c r="H1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1255" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43083,14 +42219,10 @@
         <v>-184005.5781092801</v>
       </c>
       <c r="H1256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="J1256" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43124,14 +42256,10 @@
         <v>-184005.5781092801</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1257" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43165,14 +42293,10 @@
         <v>-183724.2418092801</v>
       </c>
       <c r="H1258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1258" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43206,14 +42330,10 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1259" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="J1259" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1259" t="inlineStr"/>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43247,14 +42367,10 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1260" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1260" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1260" t="inlineStr"/>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43288,14 +42404,10 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1261" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43329,14 +42441,10 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1262" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="J1262" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1262" t="inlineStr"/>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43370,14 +42478,10 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="J1263" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43411,14 +42515,10 @@
         <v>-181373.6403092801</v>
       </c>
       <c r="H1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="J1264" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43452,14 +42552,10 @@
         <v>-181373.6403092801</v>
       </c>
       <c r="H1265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1265" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="J1265" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1265" t="inlineStr"/>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43493,14 +42589,10 @@
         <v>-181941.9327092801</v>
       </c>
       <c r="H1266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1266" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="J1266" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1266" t="inlineStr"/>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43534,14 +42626,10 @@
         <v>-181941.9327092801</v>
       </c>
       <c r="H1267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1267" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="J1267" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1267" t="inlineStr"/>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43578,9 +42666,7 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43617,9 +42703,7 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43656,9 +42740,7 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43695,9 +42777,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43734,9 +42814,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>229.6</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43770,14 +42848,10 @@
         <v>-190812.2720092801</v>
       </c>
       <c r="H1273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1273" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="J1273" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1273" t="inlineStr"/>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43811,14 +42885,10 @@
         <v>-191564.0951092801</v>
       </c>
       <c r="H1274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1274" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="J1274" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1274" t="inlineStr"/>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43852,14 +42922,10 @@
         <v>-190033.6305092801</v>
       </c>
       <c r="H1275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="J1275" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43871,6 +42937,6 @@
       <c r="M1275" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-19 BackTest LUNA.xlsx
@@ -1738,7 +1738,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-59645.92829999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-64076.71989999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-64640.42649999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-60762.50659999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-62538.16629999998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-57821.70769999998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-75247.93499999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-53239.19329999999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-58585.34919999999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-61567.76029999999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-57892.21539999999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-60397.38369999998</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-56317.31739999999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-58927.46399999999</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-58927.46399999999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-57811.21879999999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-57811.21879999999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-53982.48179999999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-58051.85219999999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-61484.34779999999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-60034.32229999999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-63147.18189999998</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-62489.77399999998</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-59006.43739999998</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-60177.53179999998</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-60177.53179999998</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-55799.59779999998</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-55799.59779999998</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-47231.17469999998</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-48539.97799999998</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-46384.07079999998</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-45196.35679999998</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-48325.04359999998</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-47240.77759999998</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-47930.67919999998</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-46301.08899999998</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-49402.01109999997</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-47682.19655621998</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-46890.10685621998</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-48370.02235621998</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-52087.77155621998</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-55284.96635621998</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-58250.21945621998</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-55060.33765621998</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-56846.10875621998</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-53987.35975621997</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-51631.05435621997</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-51452.99035621998</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-51274.92615621998</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-49364.21485621997</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-51479.10645621998</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-53217.41705621997</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-53039.31775621997</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-46201.17015621997</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-47248.44355621997</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-44212.05185621997</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-40536.96385621997</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-38201.38295621997</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-35812.23955621997</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-33001.88195621996</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-28825.28775621996</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-27208.71315621996</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-33191.17635621996</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-36359.41795621996</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-36270.38345621996</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-40066.29685621996</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-44422.00635621996</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-46478.79155621996</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-49188.87765621996</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-50630.84605621995</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-49369.82835621996</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-55897.95435621995</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-62428.24955621995</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-65903.43195621995</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-69599.59545621995</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-150353.83027034</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-150353.83027034</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-148042.24617034</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-149391.4598703399</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-146305.9220703399</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-149247.0836703399</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -33484,1727 +33484,1535 @@
         <v>-186776.18017034</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="C1004" t="n">
         <v>229.2</v>
       </c>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
+      <c r="D1004" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>4849.6123</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>-191625.79247034</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>7905.4661</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>-183720.32637034</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>2799.30216106</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>-180921.02420928</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>2246.2079</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>-183167.23210928</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>2402.077</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>-183167.23210928</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>3107.6464</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-183167.23210928</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>4203.2375</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>-178963.99460928</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>2196.3704</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>-176767.62420928</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>2335.1618</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>-179102.78600928</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>2351.4181</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>-176751.36790928</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>4913.3664</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>-181664.73430928</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>3904.0333</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>-181664.73430928</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>2357.7237</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>-181664.73430928</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>2378.8278</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>-179285.90650928</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>2055.9296</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>-181341.83610928</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>4575.4193</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>-176766.41680928</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>230.2</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>230.2</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>4023.9295</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>-180790.34630928</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>1017.2818</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>-179773.06450928</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>1349.4717</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>-181122.53620928</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>547.1268</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>-181122.53620928</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>5537.4854</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>-175585.05080928</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>3280.9927</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>-175585.05080928</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>2067.8297</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>-173517.22110928</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>1115.1078</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>-173517.22110928</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>1581.5975</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>-173517.22110928</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>230</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>227.1</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>14744.6938</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>-188261.91490928</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>5509.7583</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>-193771.67320928</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>230</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>230</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>230</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>230</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>1729.3306</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>-192042.34260928</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>230</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>230</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>2519.159</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>-194561.50160928</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>230</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>230</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>2343.2388</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>-192218.26280928</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>229</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>5219.7128</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>-197437.97560928</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>229</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>229</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>4082.3507</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>-201520.32630928</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>2877.2113</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>-198643.11500928</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>1317.3442</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>-199960.45920928</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>229</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>229</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>2788.9656</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>-197171.49360928</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
+      <c r="L1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>229</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>10866.7549</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>-186304.73870928</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
+      <c r="L1039" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>1003.27</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>-186304.73870928</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
+      <c r="L1040" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>2753.8773</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>-186304.73870928</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
+      <c r="L1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>3081.0407</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>-183223.69800928</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
+      <c r="L1042" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>2803.9113</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>-186027.60930928</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
+      <c r="L1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>3894.466</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>-182133.14330928</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
+      <c r="L1044" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>2459.2046</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>-182133.14330928</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
+      <c r="L1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>230</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>230</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>1777.2291</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>-180355.91420928</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
+      <c r="L1046" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>230</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>230</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>3066.7351</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>-180355.91420928</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
+      <c r="L1047" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>229</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>229</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>6970.4957</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>-187326.40990928</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
+      <c r="L1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>229</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>3987.447</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>-183338.96290928</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>229</v>
+      </c>
+      <c r="J1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>4849.6123</v>
-      </c>
-      <c r="G1004" t="n">
-        <v>-191625.79247034</v>
-      </c>
-      <c r="H1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1004" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>7905.4661</v>
-      </c>
-      <c r="G1005" t="n">
-        <v>-183720.32637034</v>
-      </c>
-      <c r="H1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>2799.30216106</v>
-      </c>
-      <c r="G1006" t="n">
-        <v>-180921.02420928</v>
-      </c>
-      <c r="H1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>2246.2079</v>
-      </c>
-      <c r="G1007" t="n">
-        <v>-183167.23210928</v>
-      </c>
-      <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>2402.077</v>
-      </c>
-      <c r="G1008" t="n">
-        <v>-183167.23210928</v>
-      </c>
-      <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>3107.6464</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>-183167.23210928</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>4203.2375</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>-178963.99460928</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>2196.3704</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>-176767.62420928</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>2335.1618</v>
-      </c>
-      <c r="G1012" t="n">
-        <v>-179102.78600928</v>
-      </c>
-      <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>2351.4181</v>
-      </c>
-      <c r="G1013" t="n">
-        <v>-176751.36790928</v>
-      </c>
-      <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1013" t="inlineStr"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>4913.3664</v>
-      </c>
-      <c r="G1014" t="n">
-        <v>-181664.73430928</v>
-      </c>
-      <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>3904.0333</v>
-      </c>
-      <c r="G1015" t="n">
-        <v>-181664.73430928</v>
-      </c>
-      <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1015" t="inlineStr"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>2357.7237</v>
-      </c>
-      <c r="G1016" t="n">
-        <v>-181664.73430928</v>
-      </c>
-      <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1016" t="inlineStr"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>2378.8278</v>
-      </c>
-      <c r="G1017" t="n">
-        <v>-179285.90650928</v>
-      </c>
-      <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>2055.9296</v>
-      </c>
-      <c r="G1018" t="n">
-        <v>-181341.83610928</v>
-      </c>
-      <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>4575.4193</v>
-      </c>
-      <c r="G1019" t="n">
-        <v>-176766.41680928</v>
-      </c>
-      <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>230.2</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>4023.9295</v>
-      </c>
-      <c r="G1020" t="n">
-        <v>-180790.34630928</v>
-      </c>
-      <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>1017.2818</v>
-      </c>
-      <c r="G1021" t="n">
-        <v>-179773.06450928</v>
-      </c>
-      <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>1349.4717</v>
-      </c>
-      <c r="G1022" t="n">
-        <v>-181122.53620928</v>
-      </c>
-      <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1022" t="inlineStr"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>547.1268</v>
-      </c>
-      <c r="G1023" t="n">
-        <v>-181122.53620928</v>
-      </c>
-      <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1023" t="inlineStr"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>5537.4854</v>
-      </c>
-      <c r="G1024" t="n">
-        <v>-175585.05080928</v>
-      </c>
-      <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1024" t="inlineStr"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>3280.9927</v>
-      </c>
-      <c r="G1025" t="n">
-        <v>-175585.05080928</v>
-      </c>
-      <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1025" t="inlineStr"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>2067.8297</v>
-      </c>
-      <c r="G1026" t="n">
-        <v>-173517.22110928</v>
-      </c>
-      <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1026" t="inlineStr"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>1115.1078</v>
-      </c>
-      <c r="G1027" t="n">
-        <v>-173517.22110928</v>
-      </c>
-      <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1027" t="inlineStr"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>1581.5975</v>
-      </c>
-      <c r="G1028" t="n">
-        <v>-173517.22110928</v>
-      </c>
-      <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1028" t="inlineStr"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>230</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>227.1</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>14744.6938</v>
-      </c>
-      <c r="G1029" t="n">
-        <v>-188261.91490928</v>
-      </c>
-      <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1029" t="inlineStr"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>5509.7583</v>
-      </c>
-      <c r="G1030" t="n">
-        <v>-193771.67320928</v>
-      </c>
-      <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>230</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>230</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>230</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>230</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>1729.3306</v>
-      </c>
-      <c r="G1031" t="n">
-        <v>-192042.34260928</v>
-      </c>
-      <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1031" t="inlineStr"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>230</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>230</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>2519.159</v>
-      </c>
-      <c r="G1032" t="n">
-        <v>-194561.50160928</v>
-      </c>
-      <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>230</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>230</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>2343.2388</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>-192218.26280928</v>
-      </c>
-      <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>229</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>5219.7128</v>
-      </c>
-      <c r="G1034" t="n">
-        <v>-197437.97560928</v>
-      </c>
-      <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1034" t="inlineStr"/>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>229</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>229</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>4082.3507</v>
-      </c>
-      <c r="G1035" t="n">
-        <v>-201520.32630928</v>
-      </c>
-      <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1035" t="inlineStr"/>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>2877.2113</v>
-      </c>
-      <c r="G1036" t="n">
-        <v>-198643.11500928</v>
-      </c>
-      <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1036" t="inlineStr"/>
-    </row>
-    <row r="1037">
-      <c r="A1037" s="1" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="D1037" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="E1037" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>1317.3442</v>
-      </c>
-      <c r="G1037" t="n">
-        <v>-199960.45920928</v>
-      </c>
-      <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>229</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="D1038" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="E1038" t="n">
-        <v>229</v>
-      </c>
-      <c r="F1038" t="n">
-        <v>2788.9656</v>
-      </c>
-      <c r="G1038" t="n">
-        <v>-197171.49360928</v>
-      </c>
-      <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1038" t="inlineStr"/>
-    </row>
-    <row r="1039">
-      <c r="A1039" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="B1039" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="C1039" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="D1039" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="E1039" t="n">
-        <v>229</v>
-      </c>
-      <c r="F1039" t="n">
-        <v>10866.7549</v>
-      </c>
-      <c r="G1039" t="n">
-        <v>-186304.73870928</v>
-      </c>
-      <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1039" t="inlineStr"/>
-    </row>
-    <row r="1040">
-      <c r="A1040" s="1" t="n">
-        <v>1038</v>
-      </c>
-      <c r="B1040" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="C1040" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="D1040" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="E1040" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="F1040" t="n">
-        <v>1003.27</v>
-      </c>
-      <c r="G1040" t="n">
-        <v>-186304.73870928</v>
-      </c>
-      <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1040" t="inlineStr"/>
-    </row>
-    <row r="1041">
-      <c r="A1041" s="1" t="n">
-        <v>1039</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="C1041" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="D1041" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="E1041" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="F1041" t="n">
-        <v>2753.8773</v>
-      </c>
-      <c r="G1041" t="n">
-        <v>-186304.73870928</v>
-      </c>
-      <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1041" t="inlineStr"/>
-    </row>
-    <row r="1042">
-      <c r="A1042" s="1" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="C1042" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="D1042" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="E1042" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="F1042" t="n">
-        <v>3081.0407</v>
-      </c>
-      <c r="G1042" t="n">
-        <v>-183223.69800928</v>
-      </c>
-      <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1042" t="inlineStr"/>
-    </row>
-    <row r="1043">
-      <c r="A1043" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="C1043" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="D1043" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="E1043" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="F1043" t="n">
-        <v>2803.9113</v>
-      </c>
-      <c r="G1043" t="n">
-        <v>-186027.60930928</v>
-      </c>
-      <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1043" t="inlineStr"/>
-    </row>
-    <row r="1044">
-      <c r="A1044" s="1" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="C1044" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="D1044" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="F1044" t="n">
-        <v>3894.466</v>
-      </c>
-      <c r="G1044" t="n">
-        <v>-182133.14330928</v>
-      </c>
-      <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="C1045" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="D1045" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="E1045" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="F1045" t="n">
-        <v>2459.2046</v>
-      </c>
-      <c r="G1045" t="n">
-        <v>-182133.14330928</v>
-      </c>
-      <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1045" t="inlineStr"/>
-    </row>
-    <row r="1046">
-      <c r="A1046" s="1" t="n">
-        <v>1044</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="C1046" t="n">
-        <v>230</v>
-      </c>
-      <c r="D1046" t="n">
-        <v>230</v>
-      </c>
-      <c r="E1046" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="F1046" t="n">
-        <v>1777.2291</v>
-      </c>
-      <c r="G1046" t="n">
-        <v>-180355.91420928</v>
-      </c>
-      <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1046" t="inlineStr"/>
-    </row>
-    <row r="1047">
-      <c r="A1047" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="C1047" t="n">
-        <v>230</v>
-      </c>
-      <c r="D1047" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="E1047" t="n">
-        <v>230</v>
-      </c>
-      <c r="F1047" t="n">
-        <v>3066.7351</v>
-      </c>
-      <c r="G1047" t="n">
-        <v>-180355.91420928</v>
-      </c>
-      <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1047" t="inlineStr"/>
-    </row>
-    <row r="1048">
-      <c r="A1048" s="1" t="n">
-        <v>1046</v>
-      </c>
-      <c r="B1048" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="C1048" t="n">
-        <v>229</v>
-      </c>
-      <c r="D1048" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="E1048" t="n">
-        <v>229</v>
-      </c>
-      <c r="F1048" t="n">
-        <v>6970.4957</v>
-      </c>
-      <c r="G1048" t="n">
-        <v>-187326.40990928</v>
-      </c>
-      <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1048" t="inlineStr"/>
-    </row>
-    <row r="1049">
-      <c r="A1049" s="1" t="n">
-        <v>1047</v>
-      </c>
-      <c r="B1049" t="n">
-        <v>229</v>
-      </c>
-      <c r="C1049" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="D1049" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="E1049" t="n">
-        <v>228.6</v>
-      </c>
-      <c r="F1049" t="n">
-        <v>3987.447</v>
-      </c>
-      <c r="G1049" t="n">
-        <v>-183338.96290928</v>
-      </c>
-      <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35233,9 +35041,11 @@
         <v>-178149.72190928</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>229.1</v>
+      </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -35270,9 +35080,11 @@
         <v>-178149.72190928</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>229.3</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35307,9 +35119,11 @@
         <v>-177798.46100928</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>229.3</v>
+      </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -35344,9 +35158,11 @@
         <v>-175326.70400928</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -35381,9 +35197,11 @@
         <v>-176456.63860928</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>229.8</v>
+      </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -35418,9 +35236,11 @@
         <v>-175246.84250928</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>229.6</v>
+      </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -35455,9 +35275,11 @@
         <v>-175246.84250928</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>229.8</v>
+      </c>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -35492,9 +35314,11 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>229.8</v>
+      </c>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -35529,9 +35353,11 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
@@ -35566,9 +35392,11 @@
         <v>-178910.17370928</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -35603,9 +35431,11 @@
         <v>-182456.67840928</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -35640,9 +35470,11 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>229.3</v>
+      </c>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
@@ -35677,9 +35509,11 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>229.5</v>
+      </c>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
@@ -35714,9 +35548,11 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>229.5</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -35751,9 +35587,11 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>229.5</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -35788,9 +35626,11 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>229.5</v>
+      </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
@@ -35825,9 +35665,11 @@
         <v>-179848.46100928</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>229.5</v>
+      </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
@@ -35862,9 +35704,11 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>229.5</v>
+      </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -35899,9 +35743,11 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -35936,9 +35782,11 @@
         <v>-178467.19810928</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -35973,9 +35821,11 @@
         <v>-178378.15430928</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -36010,9 +35860,11 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>229.8</v>
+      </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -36047,9 +35899,11 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
@@ -36084,9 +35938,11 @@
         <v>-177198.84330928</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -36121,9 +35977,11 @@
         <v>-173616.64710928</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
@@ -36158,9 +36016,11 @@
         <v>-170762.70030928</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>230.4</v>
+      </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -36195,9 +36055,11 @@
         <v>-173227.84470928</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>230.7</v>
+      </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36232,9 +36094,11 @@
         <v>-166937.00960928</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>230.6</v>
+      </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36269,9 +36133,11 @@
         <v>-164451.02430928</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>230.8</v>
+      </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36380,16 +36246,18 @@
         <v>-162045.71660928</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1081" t="inlineStr"/>
+      <c r="L1081" t="n">
+        <v>1</v>
+      </c>
       <c r="M1081" t="inlineStr"/>
     </row>
     <row r="1082">
@@ -36415,11 +36283,15 @@
         <v>-166293.81530928</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36448,11 +36320,15 @@
         <v>-168239.04730928</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36481,11 +36357,15 @@
         <v>-171114.06490928</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36514,11 +36394,15 @@
         <v>-172343.76980928</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36547,11 +36431,15 @@
         <v>-172870.58940928</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36580,11 +36468,15 @@
         <v>-171993.24750928</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36613,11 +36505,17 @@
         <v>-177536.55820928</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>232.4</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36646,11 +36544,17 @@
         <v>-179836.97310928</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>232</v>
+      </c>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36679,11 +36583,17 @@
         <v>-181524.37490928</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>231.9</v>
+      </c>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36712,11 +36622,17 @@
         <v>-178978.44320928</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>231.7</v>
+      </c>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36749,7 +36665,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36782,7 +36702,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36815,7 +36739,11 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36848,7 +36776,11 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36881,7 +36813,11 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36914,7 +36850,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36947,7 +36887,11 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36980,7 +36924,11 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37013,7 +36961,11 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37042,11 +36994,15 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -37075,11 +37031,15 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -37108,11 +37068,15 @@
         <v>-174808.56930928</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -37141,11 +37105,15 @@
         <v>-172488.66130928</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -37174,11 +37142,15 @@
         <v>-172488.66130928</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -37207,11 +37179,15 @@
         <v>-168803.62660928</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -37240,11 +37216,15 @@
         <v>-168803.62660928</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -37273,11 +37253,15 @@
         <v>-172188.68550928</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -37306,11 +37290,15 @@
         <v>-170120.43920928</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37339,11 +37327,15 @@
         <v>-172908.54770928</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37372,11 +37364,15 @@
         <v>-172908.54770928</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37405,11 +37401,15 @@
         <v>-175148.95610928</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37438,11 +37438,15 @@
         <v>-172306.39760928</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37471,11 +37475,15 @@
         <v>-169927.79260928</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37504,11 +37512,15 @@
         <v>-169229.41660928</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37537,11 +37549,15 @@
         <v>-175971.21890928</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37570,11 +37586,15 @@
         <v>-175971.21890928</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37607,7 +37627,11 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37636,11 +37660,15 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37669,11 +37697,15 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37702,11 +37734,15 @@
         <v>-177428.03510928</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37735,11 +37771,15 @@
         <v>-178726.73510928</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37772,7 +37812,11 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37805,7 +37849,11 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37838,7 +37886,11 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37871,7 +37923,11 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37904,7 +37960,11 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37937,7 +37997,11 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37970,7 +38034,11 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -38003,7 +38071,11 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -38036,7 +38108,11 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -38069,7 +38145,11 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -38102,7 +38182,11 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -38135,7 +38219,11 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -38168,7 +38256,11 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -38201,7 +38293,11 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -38234,7 +38330,11 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -38267,7 +38367,11 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -38300,7 +38404,11 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38333,7 +38441,11 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38366,7 +38478,11 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38399,7 +38515,11 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38432,7 +38552,11 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38465,7 +38589,11 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38498,7 +38626,11 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38531,7 +38663,11 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38564,7 +38700,11 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38597,7 +38737,11 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38630,7 +38774,11 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38663,7 +38811,11 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38696,7 +38848,11 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38729,7 +38885,11 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38762,7 +38922,11 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38795,7 +38959,11 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38828,7 +38996,11 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38861,7 +39033,11 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38894,7 +39070,11 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38927,7 +39107,11 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38960,7 +39144,11 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38993,7 +39181,11 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39026,7 +39218,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39059,7 +39255,11 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39092,7 +39292,11 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39125,7 +39329,11 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39158,7 +39366,11 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39191,7 +39403,11 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39224,7 +39440,11 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39257,7 +39477,11 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39290,7 +39514,11 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39323,7 +39551,11 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39356,7 +39588,11 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39389,7 +39625,11 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39422,7 +39662,11 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39455,7 +39699,11 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39488,7 +39736,11 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39521,7 +39773,11 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39554,7 +39810,11 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39587,7 +39847,11 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39620,7 +39884,11 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39653,7 +39921,11 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39686,7 +39958,11 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39719,7 +39995,11 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39752,7 +40032,11 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39785,7 +40069,11 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39818,7 +40106,11 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39851,7 +40143,11 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39884,7 +40180,11 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39917,7 +40217,11 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39950,7 +40254,11 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39983,7 +40291,11 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40016,7 +40328,11 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -40049,7 +40365,11 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40082,7 +40402,11 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40115,7 +40439,11 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40148,7 +40476,11 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40181,7 +40513,11 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40214,7 +40550,11 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40247,7 +40587,11 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40280,7 +40624,11 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40313,7 +40661,11 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40346,7 +40698,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40379,7 +40735,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40412,7 +40772,11 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40445,7 +40809,11 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40478,7 +40846,11 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40511,7 +40883,11 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40544,7 +40920,11 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40577,7 +40957,11 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40610,7 +40994,11 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40643,7 +41031,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40676,7 +41068,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40709,7 +41105,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40742,7 +41142,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40775,7 +41179,11 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40808,7 +41216,11 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40841,7 +41253,11 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40874,7 +41290,11 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40907,7 +41327,11 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40940,7 +41364,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40973,7 +41401,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41006,7 +41438,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41039,7 +41475,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41072,7 +41512,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41105,7 +41549,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41138,7 +41586,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41171,7 +41623,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41204,7 +41660,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41237,7 +41697,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41270,7 +41734,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41303,7 +41771,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41336,7 +41808,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41369,7 +41845,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41402,7 +41882,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41435,7 +41919,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41468,7 +41956,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41501,7 +41993,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41534,7 +42030,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41567,7 +42067,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41600,7 +42104,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41633,7 +42141,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41670,7 +42182,7 @@
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1241" t="n">
@@ -41701,9 +42213,11 @@
         <v>-188075.9041092801</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>228.7</v>
+      </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41738,9 +42252,11 @@
         <v>-187986.8552092801</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>229.5</v>
+      </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41775,9 +42291,11 @@
         <v>-190179.2820092801</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41812,9 +42330,11 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>229.6</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41849,9 +42369,11 @@
         <v>-190090.1907092801</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>229.8</v>
+      </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -41886,9 +42408,11 @@
         <v>-190001.1905092801</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>229.8</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -41923,9 +42447,11 @@
         <v>-190769.5559092801</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -41960,9 +42486,11 @@
         <v>-189841.0161092801</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>229.7</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -41997,9 +42525,11 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>229.8</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42034,9 +42564,11 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>230</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42071,9 +42603,11 @@
         <v>-189508.7803092801</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>230</v>
+      </c>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
@@ -42108,9 +42642,11 @@
         <v>-182978.3806092801</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>230</v>
+      </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42182,9 +42718,11 @@
         <v>-181078.2440092801</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42219,9 +42757,11 @@
         <v>-184005.5781092801</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>230.3</v>
+      </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42256,9 +42796,11 @@
         <v>-184005.5781092801</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42293,9 +42835,11 @@
         <v>-183724.2418092801</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42330,9 +42874,11 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>230.3</v>
+      </c>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
@@ -42367,9 +42913,11 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42404,9 +42952,11 @@
         <v>-185909.7210092801</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42441,9 +42991,11 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
@@ -42478,9 +43030,11 @@
         <v>-184899.2621092801</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>230.3</v>
+      </c>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
@@ -42515,9 +43069,11 @@
         <v>-181373.6403092801</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>230.3</v>
+      </c>
       <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
@@ -42552,9 +43108,11 @@
         <v>-181373.6403092801</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>230.4</v>
+      </c>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
@@ -42589,9 +43147,11 @@
         <v>-181941.9327092801</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>230.4</v>
+      </c>
       <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
@@ -42626,9 +43186,11 @@
         <v>-181941.9327092801</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>230.3</v>
+      </c>
       <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
@@ -42663,9 +43225,11 @@
         <v>-183182.0034092801</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>230.3</v>
+      </c>
       <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
@@ -42700,9 +43264,11 @@
         <v>-183182.0034092801</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
@@ -42737,9 +43303,11 @@
         <v>-183182.0034092801</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
@@ -42774,9 +43342,11 @@
         <v>-188936.4361092801</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>230.2</v>
+      </c>
       <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
@@ -42811,9 +43381,11 @@
         <v>-192650.5849092801</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
@@ -42848,9 +43420,11 @@
         <v>-190812.2720092801</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>229.2</v>
+      </c>
       <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
@@ -42885,9 +43459,11 @@
         <v>-191564.0951092801</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>229.3</v>
+      </c>
       <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
@@ -42922,9 +43498,11 @@
         <v>-190033.6305092801</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>229.2</v>
+      </c>
       <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
